--- a/resources/xlsx_templates/archive.xlsx
+++ b/resources/xlsx_templates/archive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/birddog/resources/xlsx_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15CB2E9-21B3-3E41-8966-F22E5E7F89C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7502FB38-3159-6F47-BF01-41A529A13004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="7620" windowWidth="29180" windowHeight="9640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,15 +134,6 @@
     <t>{edit:changed}</t>
   </si>
   <si>
-    <t>{child[0]:linked}</t>
-  </si>
-  <si>
-    <t>{child[1]:linked}</t>
-  </si>
-  <si>
-    <t>{child[2]}</t>
-  </si>
-  <si>
     <t>='{child:sheetname}'!E5</t>
   </si>
   <si>
@@ -177,6 +168,15 @@
   </si>
   <si>
     <t>{edit:unlinked}</t>
+  </si>
+  <si>
+    <t>{child[ID]:linked}</t>
+  </si>
+  <si>
+    <t>{child[DESCRIPTION]:linked}</t>
+  </si>
+  <si>
+    <t>{child[DATE]}</t>
   </si>
 </sst>
 </file>
@@ -919,9 +919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P2" sqref="P2:P3"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -972,7 +972,7 @@
         <v>31</v>
       </c>
       <c r="P2" s="63" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1002,7 +1002,7 @@
         <v>32</v>
       </c>
       <c r="P3" s="64" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
@@ -1133,46 +1133,46 @@
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="I8" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="J8" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="K8" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="L8" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="M8" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="N8" s="53" t="s">
         <v>42</v>
-      </c>
-      <c r="L8" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="53" t="s">
-        <v>45</v>
       </c>
       <c r="O8" s="54" t="s">
         <v>27</v>

--- a/resources/xlsx_templates/archive.xlsx
+++ b/resources/xlsx_templates/archive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/birddog/resources/xlsx_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7502FB38-3159-6F47-BF01-41A529A13004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC444E8-C39E-CD40-B594-437123A56A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="7620" windowWidth="29180" windowHeight="9640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="7620" windowWidth="33500" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="{id}" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
   <si>
     <t>accessed:</t>
   </si>
@@ -110,9 +110,6 @@
     <t>{description}</t>
   </si>
   <si>
-    <t>{lastmod}</t>
-  </si>
-  <si>
     <t>{url:linked}</t>
   </si>
   <si>
@@ -177,6 +174,15 @@
   </si>
   <si>
     <t>{child[DATE]}</t>
+  </si>
+  <si>
+    <t>{lastmod:date}</t>
+  </si>
+  <si>
+    <t>ref. version</t>
+  </si>
+  <si>
+    <t>{refmod:date}</t>
   </si>
 </sst>
 </file>
@@ -342,15 +348,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
@@ -920,8 +926,8 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -969,10 +975,10 @@
       <c r="M2" s="10"/>
       <c r="N2" s="9"/>
       <c r="O2" s="60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P2" s="63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -981,15 +987,15 @@
       <c r="C3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>25</v>
+      <c r="D3" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="16" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="18"/>
@@ -999,10 +1005,10 @@
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
       <c r="O3" s="61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
@@ -1012,8 +1018,12 @@
       <c r="B4" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
+      <c r="C4" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="E4" s="23"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -1034,34 +1044,34 @@
         <v>4</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O5" s="23"/>
     </row>
@@ -1133,49 +1143,49 @@
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="C8" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="51" t="s">
-        <v>47</v>
-      </c>
       <c r="D8" s="52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="G8" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="H8" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="I8" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="J8" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="K8" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="L8" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="M8" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="N8" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="N8" s="53" t="s">
-        <v>42</v>
-      </c>
       <c r="O8" s="54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
@@ -1197,7 +1207,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="58" t="s">
         <v>21</v>
@@ -1215,7 +1225,7 @@
         <v>22</v>
       </c>
       <c r="M10" s="62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="58"/>
       <c r="O10" s="58"/>

--- a/resources/xlsx_templates/archive.xlsx
+++ b/resources/xlsx_templates/archive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/birddog/resources/xlsx_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC444E8-C39E-CD40-B594-437123A56A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D97B65-2FCF-FA43-890D-6EA5A6E50E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="7620" windowWidth="33500" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>accessed:</t>
   </si>
@@ -129,36 +129,6 @@
   </si>
   <si>
     <t>{edit:changed}</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!E5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!F5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!G5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!H5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!I5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!J5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!K5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!L5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!M5</t>
-  </si>
-  <si>
-    <t>='{child:sheetname}'!N5</t>
   </si>
   <si>
     <t>{edit:linked}</t>
@@ -450,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -512,12 +482,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -669,18 +667,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -707,6 +693,15 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,7 +922,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P2:P3"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -974,11 +969,11 @@
       <c r="L2" s="10"/>
       <c r="M2" s="10"/>
       <c r="N2" s="9"/>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="63" t="s">
-        <v>42</v>
+      <c r="P2" s="59" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -988,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="16" t="s">
@@ -1004,11 +999,11 @@
       <c r="L3" s="19"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="64" t="s">
-        <v>43</v>
+      <c r="P3" s="60" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1">
@@ -1019,10 +1014,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="14"/>
@@ -1143,53 +1138,53 @@
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1">
       <c r="A8" s="49" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="54" t="s">
+      <c r="E8" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="63" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A9" s="55"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -1198,37 +1193,37 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="59" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="M10" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/resources/xlsx_templates/archive.xlsx
+++ b/resources/xlsx_templates/archive.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/birddog/resources/xlsx_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D97B65-2FCF-FA43-890D-6EA5A6E50E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0767AE0A-41E7-F748-8627-7916E4C92892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="7620" windowWidth="33500" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10880" yWindow="9920" windowWidth="51660" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="{id}" sheetId="1" r:id="rId1"/>
+    <sheet name="{id}" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
-  <si>
-    <t>accessed:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>source:</t>
   </si>
@@ -104,62 +101,71 @@
     <t>percentage acquired files transcribed:</t>
   </si>
   <si>
-    <t>{id} wiki</t>
+    <t>{empty}</t>
+  </si>
+  <si>
+    <t>=SUM(__COL__)</t>
+  </si>
+  <si>
+    <t>=ROWS(__COL__)</t>
+  </si>
+  <si>
+    <t>=(F$5+J$5)/M$5</t>
+  </si>
+  <si>
+    <t>{edit:added}</t>
+  </si>
+  <si>
+    <t>{edit:changed}</t>
+  </si>
+  <si>
+    <t>{edit:linked}</t>
+  </si>
+  <si>
+    <t>{edit:unlinked}</t>
+  </si>
+  <si>
+    <t>{child[ID]:linked}</t>
+  </si>
+  <si>
+    <t>{child[DESCRIPTION]:linked}</t>
+  </si>
+  <si>
+    <t>{child[DATE]}</t>
+  </si>
+  <si>
+    <t>{lastmod:date}</t>
+  </si>
+  <si>
+    <t>{refmod:date}</t>
+  </si>
+  <si>
+    <t>wiki</t>
+  </si>
+  <si>
+    <t>change date:</t>
+  </si>
+  <si>
+    <t>reference date:</t>
+  </si>
+  <si>
+    <t>{id}</t>
+  </si>
+  <si>
+    <t>{unquoted_url:linked}</t>
   </si>
   <si>
     <t>{description}</t>
-  </si>
-  <si>
-    <t>{url:linked}</t>
-  </si>
-  <si>
-    <t>{empty}</t>
-  </si>
-  <si>
-    <t>=SUM(__COL__)</t>
-  </si>
-  <si>
-    <t>=ROWS(__COL__)</t>
-  </si>
-  <si>
-    <t>=(F$5+J$5)/M$5</t>
-  </si>
-  <si>
-    <t>{edit:added}</t>
-  </si>
-  <si>
-    <t>{edit:changed}</t>
-  </si>
-  <si>
-    <t>{edit:linked}</t>
-  </si>
-  <si>
-    <t>{edit:unlinked}</t>
-  </si>
-  <si>
-    <t>{child[ID]:linked}</t>
-  </si>
-  <si>
-    <t>{child[DESCRIPTION]:linked}</t>
-  </si>
-  <si>
-    <t>{child[DATE]}</t>
-  </si>
-  <si>
-    <t>{lastmod:date}</t>
-  </si>
-  <si>
-    <t>ref. version</t>
-  </si>
-  <si>
-    <t>{refmod:date}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,27 +232,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -298,12 +283,6 @@
       <name val="Sans-serif"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,13 +290,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
@@ -333,8 +305,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,8 +412,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -450,19 +449,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
@@ -482,65 +468,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -569,117 +502,87 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -688,24 +591,104 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -917,319 +900,774 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28232FE-104D-1947-B660-6E72955F5493}">
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="35.83203125" customWidth="1"/>
+    <col min="15" max="15" width="40.1640625" customWidth="1"/>
+    <col min="16" max="28" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" ht="28">
+      <c r="A1" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="52"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+    </row>
+    <row r="2" spans="1:28" ht="19">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="55"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="5"/>
-    </row>
-    <row r="2" spans="1:16" ht="19">
-      <c r="A2" s="9" t="s">
+      <c r="F5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="11"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AB5" s="15"/>
+    </row>
+    <row r="6" spans="1:28" ht="48">
+      <c r="A6" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AB7" s="15"/>
+    </row>
+    <row r="8" spans="1:28" ht="16">
+      <c r="A8" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AB8" s="15"/>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A9" s="34"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="B10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="P3" s="60" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="23"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="23"/>
-    </row>
-    <row r="6" spans="1:16" ht="48" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="41" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1">
-      <c r="A8" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" s="63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="53" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+    </row>
+    <row r="11" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AB11" s="15"/>
+    </row>
+    <row r="12" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AB12" s="15"/>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AB13" s="15"/>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+    </row>
+    <row r="16" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+    </row>
+    <row r="17" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+    </row>
+    <row r="19" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A20" s="16"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="15"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AB21" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="https://uk.wikisource.org/wiki/xxxxxxxxxxxxxxxx" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://uk.wikisource.org/wiki/xxxxxxxxxxxxxxxx" xr:uid="{31BADD2F-8C2C-4647-9739-63E3416FB530}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/resources/xlsx_templates/archive.xlsx
+++ b/resources/xlsx_templates/archive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrandt/code/birddog/resources/xlsx_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0767AE0A-41E7-F748-8627-7916E4C92892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE3FB1-53C9-924E-9BDB-F3404BADF46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10880" yWindow="9920" windowWidth="51660" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="40">
   <si>
     <t>source:</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>{lastmod:date}</t>
-  </si>
-  <si>
-    <t>{refmod:date}</t>
   </si>
   <si>
     <t>wiki</t>
@@ -904,7 +901,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15"/>
@@ -916,11 +913,11 @@
   <sheetData>
     <row r="1" spans="1:28" ht="28">
       <c r="A1" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D1" s="45"/>
       <c r="E1" s="46"/>
@@ -930,16 +927,14 @@
       <c r="I1" s="42"/>
       <c r="J1" s="46"/>
       <c r="K1" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="50"/>
+      <c r="M1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="N1" s="51" t="s">
         <v>33</v>
-      </c>
-      <c r="M1" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="51" t="s">
-        <v>34</v>
       </c>
       <c r="O1" s="38" t="s">
         <v>26</v>
@@ -959,7 +954,7 @@
     </row>
     <row r="2" spans="1:28" ht="19">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
@@ -997,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8"/>
